--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1691,7 +1691,7 @@
 </t>
   </si>
   <si>
-    <t>Inicio del uso del medio de contacto</t>
+    <t>Iniciar del uso del medio de contacto</t>
   </si>
   <si>
     <t>The start of the period. The boundary is inclusive.</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1796,10 +1796,10 @@
 </t>
   </si>
   <si>
-    <t>Fecha de nacimiento del Paciente. El formato debe ser YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>Fecha de nacimiento del Paciente. El formato debe ser YYYY-MM-DD (Ej: 1996-08-21)</t>
+    <t>Fecha de nacimiento del prestador administrativo. El formato debe ser YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento del prestador administrativo. El formato debe ser YYYY-MM-DD (Ej: 1996-08-21)</t>
   </si>
   <si>
     <t>Needed for identification.</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$243</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8690" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8798" uniqueCount="811">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -620,7 +620,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTipoIdentificador</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSIdentificadores</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1056,7 +1056,7 @@
     <t>Practitioner.identifier:rnpi.type.coding.code</t>
   </si>
   <si>
-    <t>13</t>
+    <t>2</t>
   </si>
   <si>
     <t>Practitioner.identifier:rnpi.type.coding.display</t>
@@ -1137,7 +1137,7 @@
     <t>Practitioner.identifier:pasaporte.type.coding.code</t>
   </si>
   <si>
-    <t>5</t>
+    <t>3</t>
   </si>
   <si>
     <t>Practitioner.identifier:pasaporte.type.coding.display</t>
@@ -1938,10 +1938,10 @@
     <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional</t>
-  </si>
-  <si>
-    <t>TituloProfesional</t>
+    <t>Practitioner.qualification:Cert</t>
+  </si>
+  <si>
+    <t>Cert</t>
   </si>
   <si>
     <t>Especificación de los Títulos o Certificados Profesionales que tiene el Prestador</t>
@@ -1950,49 +1950,49 @@
     <t>Listado de Títulos o Cetificados Profesionales que tiene el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:TituloProfesional.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:TituloProfesional.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:TituloProfesional.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:TituloProfesional.identifier.id</t>
+    <t>Practitioner.qualification:Cert.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Cert.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Cert.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Cert.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Cert.identifier.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.identifier.extension</t>
+    <t>Practitioner.qualification:Cert.identifier.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.identifier.use</t>
+    <t>Practitioner.qualification:Cert.identifier.use</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.use</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.identifier.type</t>
+    <t>Practitioner.qualification:Cert.identifier.type</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.type</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.identifier.system</t>
+    <t>Practitioner.qualification:Cert.identifier.system</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.system</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.identifier.value</t>
+    <t>Practitioner.qualification:Cert.identifier.value</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.value</t>
@@ -2004,52 +2004,52 @@
     <t>cert</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.identifier.period</t>
+    <t>Practitioner.qualification:Cert.identifier.period</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.period</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.identifier.assigner</t>
+    <t>Practitioner.qualification:Cert.identifier.assigner</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.assigner</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:TituloProfesional.code.id</t>
+    <t>Practitioner.qualification:Cert.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Cert.code.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code.extension</t>
+    <t>Practitioner.qualification:Cert.code.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code.coding</t>
+    <t>Practitioner.qualification:Cert.code.coding</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code.coding.id</t>
+    <t>Practitioner.qualification:Cert.code.coding.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code.coding.extension</t>
+    <t>Practitioner.qualification:Cert.code.coding.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code.coding.system</t>
+    <t>Practitioner.qualification:Cert.code.coding.system</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.system</t>
@@ -2061,13 +2061,13 @@
     <t>La url sobre la cual se encuentra el endPoint para el acceso a  los códigos de titulos y/o certificados de prestadores. El perfil especifica que se debe usar la siguiente url:  "https://api.minsal.cl/v1/catalogos/profesiones/"</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code.coding.version</t>
+    <t>Practitioner.qualification:Cert.code.coding.version</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.version</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code.coding.code</t>
+    <t>Practitioner.qualification:Cert.code.coding.code</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.code</t>
@@ -2079,19 +2079,19 @@
     <t>Nombre del titulo o certificado agregado. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code.coding.display</t>
+    <t>Practitioner.qualification:Cert.code.coding.display</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.display</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code.coding.userSelected</t>
+    <t>Practitioner.qualification:Cert.code.coding.userSelected</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.userSelected</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.code.text</t>
+    <t>Practitioner.qualification:Cert.code.text</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.text</t>
@@ -2100,28 +2100,28 @@
     <t>Nombre del titulo entregado por la Super Intendencia de Salud</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:TituloProfesional.issuer</t>
+    <t>Practitioner.qualification:Cert.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Cert.issuer</t>
   </si>
   <si>
     <t>Organizacion que entrega el certificado o título</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.issuer.id</t>
+    <t>Practitioner.qualification:Cert.issuer.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.issuer.extension</t>
+    <t>Practitioner.qualification:Cert.issuer.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.issuer.reference</t>
+    <t>Practitioner.qualification:Cert.issuer.reference</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.reference</t>
@@ -2143,7 +2143,7 @@
 </t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.issuer.type</t>
+    <t>Practitioner.qualification:Cert.issuer.type</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.type</t>
@@ -2168,7 +2168,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.issuer.identifier</t>
+    <t>Practitioner.qualification:Cert.issuer.identifier</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.identifier</t>
@@ -2192,7 +2192,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>Practitioner.qualification:TituloProfesional.issuer.display</t>
+    <t>Practitioner.qualification:Cert.issuer.display</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.display</t>
@@ -2210,259 +2210,277 @@
     <t>Reference.display</t>
   </si>
   <si>
+    <t>Practitioner.qualification:Esp</t>
+  </si>
+  <si>
+    <t>Esp</t>
+  </si>
+  <si>
+    <t>Especificación de la o las  especialidades que posea el prestador</t>
+  </si>
+  <si>
+    <t>Listado de especialidades que posee el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.identifier.system</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.identifier.value</t>
+  </si>
+  <si>
+    <t>Valor del tipo de calificación, en este caso esp</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.coding.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.coding.system</t>
+  </si>
+  <si>
+    <t>El sistema sobre el cual se verificarán las especialidades de los Prestadores</t>
+  </si>
+  <si>
+    <t>la url sobre la cual se encuentra el endPoint para el acceso a  los códigos de especialidades de prestadores. El perfil especifica  "https://api.minsal.cl/v1/catalogos/tiposEspecialidadMedica/"</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.coding.version</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.coding.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.coding.display</t>
+  </si>
+  <si>
+    <t>Nombre de la especialidad</t>
+  </si>
+  <si>
+    <t>Nombre la especialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.code.text</t>
+  </si>
+  <si>
+    <t>Texto libre de la especialidad del profesional</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.issuer</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.issuer.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.issuer.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.issuer.reference</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.issuer.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.issuer.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Esp.issuer.display</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp</t>
+  </si>
+  <si>
+    <t>SubEsp</t>
+  </si>
+  <si>
+    <t>Especificación de la o las subespecialidades que posea el prestador</t>
+  </si>
+  <si>
+    <t>Listado de subespecialidades que posee el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.identifier.system</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.identifier.value</t>
+  </si>
+  <si>
+    <t>Valor del tipo de calificación, en este caso subesp</t>
+  </si>
+  <si>
+    <t>subesp</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.coding.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.coding.system</t>
+  </si>
+  <si>
+    <t>la url sobre la cual se encuentra el endPoint para el acceso a  los códigos de especialidades de prestadores.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.coding.version</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.coding.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.coding.display</t>
+  </si>
+  <si>
+    <t>Nombre de la subespecialidad</t>
+  </si>
+  <si>
+    <t>Nombre la subespecialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.code.text</t>
+  </si>
+  <si>
+    <t>Texto libre de la subespecialidad del profesional</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.issuer</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.issuer.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.issuer.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.issuer.reference</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.issuer.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.issuer.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:SubEsp.issuer.display</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional</t>
+  </si>
+  <si>
+    <t>TituloProfesional</t>
+  </si>
+  <si>
     <t>Practitioner.qualification:EspecialidadMedica</t>
   </si>
   <si>
     <t>EspecialidadMedica</t>
   </si>
   <si>
-    <t>Especificación de la o las  especialidades que posea el prestador</t>
-  </si>
-  <si>
-    <t>Listado de especialidades que posee el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.identifier.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.identifier.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.identifier.use</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.identifier.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.identifier.system</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.identifier.value</t>
-  </si>
-  <si>
-    <t>Valor del tipo de calificación, en este caso esp</t>
-  </si>
-  <si>
-    <t>esp</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.identifier.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.coding</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.coding.system</t>
-  </si>
-  <si>
-    <t>El sistema sobre el cual se verificarán las especialidades de los Prestadores</t>
-  </si>
-  <si>
-    <t>la url sobre la cual se encuentra el endPoint para el acceso a  los códigos de especialidades de prestadores. El perfil especifica  "https://api.minsal.cl/v1/catalogos/tiposEspecialidadMedica/"</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.coding.version</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.coding.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.coding.display</t>
-  </si>
-  <si>
-    <t>Nombre de la especialidad</t>
-  </si>
-  <si>
-    <t>Nombre la especialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.code.text</t>
-  </si>
-  <si>
-    <t>Texto libre de la especialidad del profesional</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.issuer</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.issuer.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.issuer.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.issuer.reference</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.issuer.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.issuer.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica.issuer.display</t>
-  </si>
-  <si>
     <t>Practitioner.qualification:Subespecialidad</t>
   </si>
   <si>
     <t>Subespecialidad</t>
-  </si>
-  <si>
-    <t>Especificación de la o las subespecialidades que posea el prestador</t>
-  </si>
-  <si>
-    <t>Listado de subespecialidades que posee el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.identifier.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.identifier.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.identifier.use</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.identifier.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.identifier.system</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.identifier.value</t>
-  </si>
-  <si>
-    <t>Valor del tipo de calificación, en este caso subesp</t>
-  </si>
-  <si>
-    <t>subesp</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.identifier.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.coding</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.coding.system</t>
-  </si>
-  <si>
-    <t>la url sobre la cual se encuentra el endPoint para el acceso a  los códigos de especialidades de prestadores.</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.coding.version</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.coding.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.coding.display</t>
-  </si>
-  <si>
-    <t>Nombre de la subespecialidad</t>
-  </si>
-  <si>
-    <t>Nombre la subespecialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.code.text</t>
-  </si>
-  <si>
-    <t>Texto libre de la subespecialidad del profesional</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.issuer</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.issuer.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.issuer.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.issuer.reference</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.issuer.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.issuer.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad.issuer.display</t>
   </si>
   <si>
     <t>Practitioner.communication</t>
@@ -2806,7 +2824,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN240"/>
+  <dimension ref="A1:AN243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2815,7 +2833,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.1328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="47.75" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.07421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2840,7 +2858,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.46875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="233.640625" customWidth="true" bestFit="true"/>
@@ -5605,7 +5623,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -7893,7 +7911,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -10181,7 +10199,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -12469,7 +12487,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>88</v>
@@ -15107,7 +15125,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>88</v>
@@ -15669,7 +15687,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>79</v>
@@ -18858,7 +18876,7 @@
         <v>78</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>89</v>
@@ -19309,10 +19327,10 @@
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>89</v>
@@ -20675,10 +20693,10 @@
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>89</v>
@@ -21247,7 +21265,7 @@
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>88</v>
@@ -21361,7 +21379,7 @@
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>88</v>
@@ -22620,7 +22638,7 @@
         <v>78</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H174" t="s" s="2">
         <v>89</v>
@@ -23071,10 +23089,10 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G178" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H178" t="s" s="2">
         <v>89</v>
@@ -24440,7 +24458,7 @@
         <v>78</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H190" t="s" s="2">
         <v>89</v>
@@ -25009,7 +25027,7 @@
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>88</v>
@@ -25123,7 +25141,7 @@
       </c>
       <c r="E196" s="2"/>
       <c r="F196" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>88</v>
@@ -26382,7 +26400,7 @@
         <v>78</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>89</v>
@@ -26833,10 +26851,10 @@
       </c>
       <c r="E211" s="2"/>
       <c r="F211" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H211" t="s" s="2">
         <v>89</v>
@@ -28202,7 +28220,7 @@
         <v>78</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>89</v>
@@ -28771,7 +28789,7 @@
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>88</v>
@@ -28885,7 +28903,7 @@
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>88</v>
@@ -30131,9 +30149,11 @@
         <v>797</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="C240" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>798</v>
+      </c>
       <c r="D240" t="s" s="2">
         <v>77</v>
       </c>
@@ -30142,10 +30162,10 @@
         <v>78</v>
       </c>
       <c r="G240" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>77</v>
@@ -30154,20 +30174,16 @@
         <v>77</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>188</v>
+        <v>586</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>798</v>
+        <v>587</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>801</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
         <v>77</v>
       </c>
@@ -30191,13 +30207,13 @@
         <v>77</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="Z240" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AA240" t="s" s="2">
         <v>77</v>
@@ -30215,7 +30231,7 @@
         <v>77</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>797</v>
+        <v>585</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>78</v>
@@ -30230,20 +30246,364 @@
         <v>100</v>
       </c>
       <c r="AK240" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AL240" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM240" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AN240" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="241" hidden="true">
+      <c r="A241" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="D241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E241" s="2"/>
+      <c r="F241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q241" s="2"/>
+      <c r="R241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AG241" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH241" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI241" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ241" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK241" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AL241" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM241" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AN241" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="242" hidden="true">
+      <c r="A242" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C242" t="s" s="2">
         <v>802</v>
       </c>
-      <c r="AL240" t="s" s="2">
+      <c r="D242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E242" s="2"/>
+      <c r="F242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H242" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K242" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q242" s="2"/>
+      <c r="R242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF242" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AG242" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH242" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI242" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ242" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK242" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AL242" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM242" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AN242" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="243" hidden="true">
+      <c r="A243" t="s" s="2">
         <v>803</v>
       </c>
-      <c r="AM240" t="s" s="2">
+      <c r="B243" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="C243" s="2"/>
+      <c r="D243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E243" s="2"/>
+      <c r="F243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G243" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="AN240" t="s" s="2">
+      <c r="M243" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="O243" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="P243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q243" s="2"/>
+      <c r="R243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AG243" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH243" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ243" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK243" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="AL243" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="AM243" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="AN243" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN240">
+  <autoFilter ref="A1:AN243">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -30253,7 +30613,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI239">
+  <conditionalFormatting sqref="A2:AI242">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$242</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8798" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8762" uniqueCount="809">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2463,12 +2463,6 @@
   </si>
   <si>
     <t>Practitioner.qualification:SubEsp.issuer.display</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:TituloProfesional</t>
-  </si>
-  <si>
-    <t>TituloProfesional</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspecialidadMedica</t>
@@ -2824,7 +2818,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN243"/>
+  <dimension ref="A1:AN242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -17968,7 +17962,7 @@
         <v>78</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>89</v>
@@ -30162,7 +30156,7 @@
         <v>78</v>
       </c>
       <c r="G240" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H240" t="s" s="2">
         <v>89</v>
@@ -30377,11 +30371,9 @@
         <v>801</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="C242" t="s" s="2">
-        <v>802</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
         <v>77</v>
       </c>
@@ -30390,10 +30382,10 @@
         <v>78</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H242" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I242" t="s" s="2">
         <v>77</v>
@@ -30402,16 +30394,20 @@
         <v>77</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>586</v>
+        <v>188</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>587</v>
+        <v>802</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
+        <v>803</v>
+      </c>
+      <c r="N242" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="O242" t="s" s="2">
+        <v>805</v>
+      </c>
       <c r="P242" t="s" s="2">
         <v>77</v>
       </c>
@@ -30435,13 +30431,13 @@
         <v>77</v>
       </c>
       <c r="X242" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AA242" t="s" s="2">
         <v>77</v>
@@ -30459,7 +30455,7 @@
         <v>77</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>585</v>
+        <v>801</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>78</v>
@@ -30474,136 +30470,20 @@
         <v>100</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>591</v>
+        <v>806</v>
       </c>
       <c r="AL242" t="s" s="2">
-        <v>592</v>
+        <v>807</v>
       </c>
       <c r="AM242" t="s" s="2">
-        <v>593</v>
+        <v>808</v>
       </c>
       <c r="AN242" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="243" hidden="true">
-      <c r="A243" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="B243" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="C243" s="2"/>
-      <c r="D243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E243" s="2"/>
-      <c r="F243" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K243" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="M243" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="O243" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="P243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q243" s="2"/>
-      <c r="R243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X243" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y243" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z243" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF243" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="AG243" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI243" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ243" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK243" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="AL243" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="AM243" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="AN243" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN243">
+  <autoFilter ref="A1:AN242">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -30613,7 +30493,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI242">
+  <conditionalFormatting sqref="A2:AI241">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PrestadorAdministrativoLE.xlsx
+++ b/StructureDefinition-PrestadorAdministrativoLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$240</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8762" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8690" uniqueCount="805">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -620,7 +620,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSIdentificadores</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTipoIdentificador</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1056,7 +1056,7 @@
     <t>Practitioner.identifier:rnpi.type.coding.code</t>
   </si>
   <si>
-    <t>2</t>
+    <t>13</t>
   </si>
   <si>
     <t>Practitioner.identifier:rnpi.type.coding.display</t>
@@ -1137,7 +1137,7 @@
     <t>Practitioner.identifier:pasaporte.type.coding.code</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>Practitioner.identifier:pasaporte.type.coding.display</t>
@@ -1938,10 +1938,10 @@
     <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert</t>
-  </si>
-  <si>
-    <t>Cert</t>
+    <t>Practitioner.qualification:TituloProfesional</t>
+  </si>
+  <si>
+    <t>TituloProfesional</t>
   </si>
   <si>
     <t>Especificación de los Títulos o Certificados Profesionales que tiene el Prestador</t>
@@ -1950,49 +1950,49 @@
     <t>Listado de Títulos o Cetificados Profesionales que tiene el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.identifier.id</t>
+    <t>Practitioner.qualification:TituloProfesional.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.identifier.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.use</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.use</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.use</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.type</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.type</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.type</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.system</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.system</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.system</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.value</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.value</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.value</t>
@@ -2004,52 +2004,52 @@
     <t>cert</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.period</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.period</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.period</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.assigner</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.assigner</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.assigner</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.code.id</t>
+    <t>Practitioner.qualification:TituloProfesional.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.code.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.code.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.id</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.system</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.system</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.system</t>
@@ -2061,13 +2061,13 @@
     <t>La url sobre la cual se encuentra el endPoint para el acceso a  los códigos de titulos y/o certificados de prestadores. El perfil especifica que se debe usar la siguiente url:  "https://api.minsal.cl/v1/catalogos/profesiones/"</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.version</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.version</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.version</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.code</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.code</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.code</t>
@@ -2079,19 +2079,19 @@
     <t>Nombre del titulo o certificado agregado. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.display</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.display</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.display</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.userSelected</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.userSelected</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.userSelected</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.text</t>
+    <t>Practitioner.qualification:TituloProfesional.code.text</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.text</t>
@@ -2100,28 +2100,28 @@
     <t>Nombre del titulo entregado por la Super Intendencia de Salud</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.issuer</t>
+    <t>Practitioner.qualification:TituloProfesional.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.issuer</t>
   </si>
   <si>
     <t>Organizacion que entrega el certificado o título</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.id</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.reference</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.reference</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.reference</t>
@@ -2143,7 +2143,7 @@
 </t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.type</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.type</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.type</t>
@@ -2168,7 +2168,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.identifier</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.identifier</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.identifier</t>
@@ -2192,7 +2192,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.display</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.display</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.display</t>
@@ -2210,10 +2210,10 @@
     <t>Reference.display</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp</t>
-  </si>
-  <si>
-    <t>Esp</t>
+    <t>Practitioner.qualification:EspecialidadMedica</t>
+  </si>
+  <si>
+    <t>EspecialidadMedica</t>
   </si>
   <si>
     <t>Especificación de la o las  especialidades que posea el prestador</t>
@@ -2222,34 +2222,34 @@
     <t>Listado de especialidades que posee el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.use</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.system</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.value</t>
+    <t>Practitioner.qualification:EspecialidadMedica.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.system</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.value</t>
   </si>
   <si>
     <t>Valor del tipo de calificación, en este caso esp</t>
@@ -2258,31 +2258,31 @@
     <t>esp</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.identifier.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.system</t>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.system</t>
   </si>
   <si>
     <t>El sistema sobre el cual se verificarán las especialidades de los Prestadores</t>
@@ -2291,13 +2291,13 @@
     <t>la url sobre la cual se encuentra el endPoint para el acceso a  los códigos de especialidades de prestadores. El perfil especifica  "https://api.minsal.cl/v1/catalogos/tiposEspecialidadMedica/"</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.code.coding.version</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.display</t>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.version</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.display</t>
   </si>
   <si>
     <t>Nombre de la especialidad</t>
@@ -2306,43 +2306,43 @@
     <t>Nombre la especialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.text</t>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.text</t>
   </si>
   <si>
     <t>Texto libre de la especialidad del profesional</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.reference</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.display</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp</t>
-  </si>
-  <si>
-    <t>SubEsp</t>
+    <t>Practitioner.qualification:EspecialidadMedica.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.reference</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.display</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad</t>
+  </si>
+  <si>
+    <t>Subespecialidad</t>
   </si>
   <si>
     <t>Especificación de la o las subespecialidades que posea el prestador</t>
@@ -2351,34 +2351,34 @@
     <t>Listado de subespecialidades que posee el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.use</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.system</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.value</t>
+    <t>Practitioner.qualification:Subespecialidad.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.system</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.value</t>
   </si>
   <si>
     <t>Valor del tipo de calificación, en este caso subesp</t>
@@ -2387,43 +2387,43 @@
     <t>subesp</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.identifier.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.system</t>
+    <t>Practitioner.qualification:Subespecialidad.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.system</t>
   </si>
   <si>
     <t>la url sobre la cual se encuentra el endPoint para el acceso a  los códigos de especialidades de prestadores.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.version</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.display</t>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.version</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.display</t>
   </si>
   <si>
     <t>Nombre de la subespecialidad</t>
@@ -2432,49 +2432,37 @@
     <t>Nombre la subespecialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.text</t>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.text</t>
   </si>
   <si>
     <t>Texto libre de la subespecialidad del profesional</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.reference</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.display</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:EspecialidadMedica</t>
-  </si>
-  <si>
-    <t>EspecialidadMedica</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Subespecialidad</t>
-  </si>
-  <si>
-    <t>Subespecialidad</t>
+    <t>Practitioner.qualification:Subespecialidad.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.reference</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.display</t>
   </si>
   <si>
     <t>Practitioner.communication</t>
@@ -2818,7 +2806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN242"/>
+  <dimension ref="A1:AN240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2827,7 +2815,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="47.75" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.07421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2852,7 +2840,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.46875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="233.640625" customWidth="true" bestFit="true"/>
@@ -5617,7 +5605,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -7905,7 +7893,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -10193,7 +10181,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -12481,7 +12469,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>88</v>
@@ -15119,7 +15107,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>88</v>
@@ -15681,7 +15669,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>79</v>
@@ -19321,10 +19309,10 @@
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>89</v>
@@ -20687,10 +20675,10 @@
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>89</v>
@@ -21259,7 +21247,7 @@
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>88</v>
@@ -21373,7 +21361,7 @@
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>88</v>
@@ -22632,7 +22620,7 @@
         <v>78</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H174" t="s" s="2">
         <v>89</v>
@@ -23083,10 +23071,10 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G178" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H178" t="s" s="2">
         <v>89</v>
@@ -24452,7 +24440,7 @@
         <v>78</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H190" t="s" s="2">
         <v>89</v>
@@ -25021,7 +25009,7 @@
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>88</v>
@@ -25135,7 +25123,7 @@
       </c>
       <c r="E196" s="2"/>
       <c r="F196" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>88</v>
@@ -26394,7 +26382,7 @@
         <v>78</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>89</v>
@@ -26845,10 +26833,10 @@
       </c>
       <c r="E211" s="2"/>
       <c r="F211" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H211" t="s" s="2">
         <v>89</v>
@@ -28214,7 +28202,7 @@
         <v>78</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>89</v>
@@ -28783,7 +28771,7 @@
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>88</v>
@@ -28897,7 +28885,7 @@
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>88</v>
@@ -30143,11 +30131,9 @@
         <v>797</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="C240" t="s" s="2">
-        <v>798</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
         <v>77</v>
       </c>
@@ -30156,10 +30142,10 @@
         <v>78</v>
       </c>
       <c r="G240" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>77</v>
@@ -30168,16 +30154,20 @@
         <v>77</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>586</v>
+        <v>188</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>587</v>
+        <v>798</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N240" s="2"/>
-      <c r="O240" s="2"/>
+        <v>799</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="O240" t="s" s="2">
+        <v>801</v>
+      </c>
       <c r="P240" t="s" s="2">
         <v>77</v>
       </c>
@@ -30201,13 +30191,13 @@
         <v>77</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Z240" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AA240" t="s" s="2">
         <v>77</v>
@@ -30225,7 +30215,7 @@
         <v>77</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>585</v>
+        <v>797</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>78</v>
@@ -30240,250 +30230,20 @@
         <v>100</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>591</v>
+        <v>802</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>592</v>
+        <v>803</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>593</v>
+        <v>804</v>
       </c>
       <c r="AN240" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="241" hidden="true">
-      <c r="A241" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="B241" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="C241" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="D241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E241" s="2"/>
-      <c r="F241" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G241" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H241" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K241" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N241" s="2"/>
-      <c r="O241" s="2"/>
-      <c r="P241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q241" s="2"/>
-      <c r="R241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF241" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AG241" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI241" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ241" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK241" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AL241" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AM241" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AN241" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="242" hidden="true">
-      <c r="A242" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="B242" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="C242" s="2"/>
-      <c r="D242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E242" s="2"/>
-      <c r="F242" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K242" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="M242" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="O242" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="P242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q242" s="2"/>
-      <c r="R242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X242" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y242" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z242" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF242" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="AG242" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH242" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI242" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ242" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK242" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="AL242" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="AM242" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="AN242" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN242">
+  <autoFilter ref="A1:AN240">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -30493,7 +30253,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI241">
+  <conditionalFormatting sqref="A2:AI239">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
